--- a/Design/bom.xlsx
+++ b/Design/bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsasala/Development/Aquarius/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61A25D1-C216-F647-8219-513ADBB19E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AAF925-443D-564F-A789-48A3AC0BC3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{65B8354C-21CA-4BC3-A1D5-79EE0BBEB83F}"/>
+    <workbookView xWindow="14800" yWindow="500" windowWidth="29040" windowHeight="20280" activeTab="1" xr2:uid="{65B8354C-21CA-4BC3-A1D5-79EE0BBEB83F}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>cost/ea</t>
   </si>
@@ -305,6 +305,15 @@
   </si>
   <si>
     <t>https://www.aliexpress.us/item/3256805565434910.html</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/176029462520?chn=ps&amp;mkevt=1&amp;mkcid=28&amp;srsltid=AfmBOopgI0Cc1oOeLfrnUPhYN-5tHWrtU8Ul_27sw_Q7RcPavQk3jhoE0g8</t>
+  </si>
+  <si>
+    <t>Tactile Push Button Switch SMD FMHXG</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Ruiwaer-10x10x9mm-Momentary-Surface-Switches/dp/B0CC26Q2MB</t>
   </si>
 </sst>
 </file>
@@ -889,10 +898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FF341D-09D8-48FF-B9F6-628C5EE284DD}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C67" sqref="B67:C67"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1530,14 +1539,70 @@
         <v>88</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="15">D59/C59</f>
+        <v>0.43200000000000005</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>4.32</v>
+      </c>
+      <c r="G59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="16">D60/C60</f>
+        <v>0.999</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>9.99</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="17">D61/C61</f>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>7.99</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G48" r:id="rId1" xr:uid="{ED972068-0F18-6848-8879-2AADF6DC3DC2}"/>
     <hyperlink ref="G49" r:id="rId2" xr:uid="{5AAD89A9-79BF-6141-A4BD-96A246BBFA30}"/>
     <hyperlink ref="G54" r:id="rId3" xr:uid="{57ABA11B-66DE-F446-84A5-4417AFA1BBCB}"/>
+    <hyperlink ref="G60" r:id="rId4" xr:uid="{6FEBD5F4-A2ED-9F4D-9EAF-F1582707BBB9}"/>
+    <hyperlink ref="G61" r:id="rId5" xr:uid="{DA984527-7678-8647-981F-45108827B256}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Design/bom.xlsx
+++ b/Design/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsasala/Development/Aquarius/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AAF925-443D-564F-A789-48A3AC0BC3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F92739-EAE9-934E-92E0-7D548BC8BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="500" windowWidth="29040" windowHeight="20280" activeTab="1" xr2:uid="{65B8354C-21CA-4BC3-A1D5-79EE0BBEB83F}"/>
+    <workbookView xWindow="11440" yWindow="500" windowWidth="29040" windowHeight="20280" activeTab="1" xr2:uid="{65B8354C-21CA-4BC3-A1D5-79EE0BBEB83F}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
   <si>
     <t>cost/ea</t>
   </si>
@@ -314,6 +314,24 @@
   </si>
   <si>
     <t>https://www.amazon.com/Ruiwaer-10x10x9mm-Momentary-Surface-Switches/dp/B0CC26Q2MB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/HiLetgo-Isolated-Switching-Supply-Module/dp/B07V5XP92F</t>
+  </si>
+  <si>
+    <t>AC/DC Module - 0.6A</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/EC-Buying-Step-Down-Intelligent-Switching/dp/B09Z253MQ2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Acxico-700mA-Module-Converter-Supply/dp/B093GW6SZ1</t>
+  </si>
+  <si>
+    <t>AC to DC 5V @ 0.7A (18.2mmx23.4mm)</t>
+  </si>
+  <si>
+    <t>Power Supply - 5v 1.2A (23.8mmx51mm</t>
   </si>
 </sst>
 </file>
@@ -389,9 +407,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -429,7 +447,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -535,7 +553,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -677,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,10 +916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FF341D-09D8-48FF-B9F6-628C5EE284DD}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1593,6 +1611,60 @@
         <v>91</v>
       </c>
     </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64:B65" si="18">D64/C64</f>
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="18"/>
+        <v>3.33</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>9.99</v>
+      </c>
+      <c r="G65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66" si="19">D66/C66</f>
+        <v>1.998</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>9.99</v>
+      </c>
+      <c r="G66" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G48" r:id="rId1" xr:uid="{ED972068-0F18-6848-8879-2AADF6DC3DC2}"/>
@@ -1600,9 +1672,10 @@
     <hyperlink ref="G54" r:id="rId3" xr:uid="{57ABA11B-66DE-F446-84A5-4417AFA1BBCB}"/>
     <hyperlink ref="G60" r:id="rId4" xr:uid="{6FEBD5F4-A2ED-9F4D-9EAF-F1582707BBB9}"/>
     <hyperlink ref="G61" r:id="rId5" xr:uid="{DA984527-7678-8647-981F-45108827B256}"/>
+    <hyperlink ref="G64" r:id="rId6" xr:uid="{1B058753-6352-694B-A644-78615DB565EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Design/bom.xlsx
+++ b/Design/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsasala/Development/Aquarius/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F92739-EAE9-934E-92E0-7D548BC8BCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E098C9-590E-F74D-9965-BD70AB5C4EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="500" windowWidth="29040" windowHeight="20280" activeTab="1" xr2:uid="{65B8354C-21CA-4BC3-A1D5-79EE0BBEB83F}"/>
+    <workbookView xWindow="12900" yWindow="1040" windowWidth="29040" windowHeight="20280" activeTab="1" xr2:uid="{65B8354C-21CA-4BC3-A1D5-79EE0BBEB83F}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
   <si>
     <t>cost/ea</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>Power Supply - 5v 1.2A (23.8mmx51mm</t>
+  </si>
+  <si>
+    <t>Power Cord</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Bergen-Industries-Inc-PS615143-Appliance/dp/B07BQ8MRKR/ref=sr_1_6?crid=3F19W3RO6VRYD&amp;keywords=tool+power+cord&amp;qid=1707781088&amp;sprefix=tool+power+cord%2Caps%2C78&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>https://www.nextlevelneo.com/products/color-flow-rgb-5mm-leds500-count-pack-ws2812b-rgb</t>
   </si>
 </sst>
 </file>
@@ -706,7 +715,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -916,10 +925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FF341D-09D8-48FF-B9F6-628C5EE284DD}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1360,6 +1369,24 @@
         <v>66</v>
       </c>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="9">D36/C36</f>
+        <v>7.37</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>7.37</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
@@ -1401,7 +1428,7 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44" si="9">D44/C44</f>
+        <f t="shared" ref="B44" si="10">D44/C44</f>
         <v>1.62</v>
       </c>
       <c r="C44">
@@ -1416,7 +1443,7 @@
         <v>77</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47:B48" si="10">D47/C47</f>
+        <f t="shared" ref="B47:B48" si="11">D47/C47</f>
         <v>0.1164</v>
       </c>
       <c r="C47">
@@ -1434,7 +1461,7 @@
         <v>77</v>
       </c>
       <c r="B48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.199999999999999E-2</v>
       </c>
       <c r="C48">
@@ -1447,12 +1474,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>76</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:B50" si="11">D49/C49</f>
+        <f t="shared" ref="B49:B50" si="12">D49/C49</f>
         <v>9.2799999999999994E-2</v>
       </c>
       <c r="C49">
@@ -1464,13 +1491,16 @@
       <c r="G49" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>76</v>
       </c>
       <c r="B50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99</v>
       </c>
       <c r="C50">
@@ -1484,12 +1514,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>79</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51" si="12">D51/C51</f>
+        <f t="shared" ref="B51" si="13">D51/C51</f>
         <v>0.99</v>
       </c>
       <c r="C51">
@@ -1503,12 +1533,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>85</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54:B55" si="13">D54/C54</f>
+        <f t="shared" ref="B54:B55" si="14">D54/C54</f>
         <v>1.998</v>
       </c>
       <c r="C54">
@@ -1521,12 +1551,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>85</v>
       </c>
       <c r="B55">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.64</v>
       </c>
       <c r="C55">
@@ -1539,12 +1569,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>85</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56" si="14">D56/C56</f>
+        <f t="shared" ref="B56" si="15">D56/C56</f>
         <v>0.62</v>
       </c>
       <c r="C56">
@@ -1557,12 +1587,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>90</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59" si="15">D59/C59</f>
+        <f t="shared" ref="B59" si="16">D59/C59</f>
         <v>0.43200000000000005</v>
       </c>
       <c r="C59">
@@ -1575,12 +1605,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>90</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60" si="16">D60/C60</f>
+        <f t="shared" ref="B60" si="17">D60/C60</f>
         <v>0.999</v>
       </c>
       <c r="C60">
@@ -1593,12 +1623,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>90</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61" si="17">D61/C61</f>
+        <f t="shared" ref="B61" si="18">D61/C61</f>
         <v>0.79900000000000004</v>
       </c>
       <c r="C61">
@@ -1611,12 +1641,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>97</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:B65" si="18">D64/C64</f>
+        <f t="shared" ref="B64:B65" si="19">D64/C64</f>
         <v>4.8949999999999996</v>
       </c>
       <c r="C64">
@@ -1634,7 +1664,7 @@
         <v>93</v>
       </c>
       <c r="B65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.33</v>
       </c>
       <c r="C65">
@@ -1652,7 +1682,7 @@
         <v>96</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66" si="19">D66/C66</f>
+        <f t="shared" ref="B66" si="20">D66/C66</f>
         <v>1.998</v>
       </c>
       <c r="C66">
@@ -1673,9 +1703,10 @@
     <hyperlink ref="G60" r:id="rId4" xr:uid="{6FEBD5F4-A2ED-9F4D-9EAF-F1582707BBB9}"/>
     <hyperlink ref="G61" r:id="rId5" xr:uid="{DA984527-7678-8647-981F-45108827B256}"/>
     <hyperlink ref="G64" r:id="rId6" xr:uid="{1B058753-6352-694B-A644-78615DB565EA}"/>
+    <hyperlink ref="G36" r:id="rId7" xr:uid="{F90E4953-6E7A-1F4E-87F7-10F69A6A7944}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Design/bom.xlsx
+++ b/Design/bom.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsasala/Development/Aquarius/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E098C9-590E-F74D-9965-BD70AB5C4EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D585291-8FA9-3349-8BD1-B39F9125297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="1040" windowWidth="29040" windowHeight="20280" activeTab="1" xr2:uid="{65B8354C-21CA-4BC3-A1D5-79EE0BBEB83F}"/>
+    <workbookView xWindow="20360" yWindow="500" windowWidth="32620" windowHeight="22860" xr2:uid="{65B8354C-21CA-4BC3-A1D5-79EE0BBEB83F}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
-    <sheet name="Part Research" sheetId="1" r:id="rId2"/>
-    <sheet name="iVac" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Part Research" sheetId="1" r:id="rId3"/>
+    <sheet name="iVac" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="222">
   <si>
     <t>cost/ea</t>
   </si>
@@ -121,9 +122,6 @@
     <t>Power Out</t>
   </si>
   <si>
-    <t>Enclosure</t>
-  </si>
-  <si>
     <t>Display</t>
   </si>
   <si>
@@ -160,9 +158,6 @@
     <t>Current Sensor</t>
   </si>
   <si>
-    <t>Power Supply</t>
-  </si>
-  <si>
     <t>Power In Connector</t>
   </si>
   <si>
@@ -286,9 +281,6 @@
     <t>Status Indicator</t>
   </si>
   <si>
-    <t xml:space="preserve">5mm WS2812 </t>
-  </si>
-  <si>
     <t>128x64 OLED</t>
   </si>
   <si>
@@ -341,13 +333,390 @@
   </si>
   <si>
     <t>https://www.nextlevelneo.com/products/color-flow-rgb-5mm-leds500-count-pack-ws2812b-rgb</t>
+  </si>
+  <si>
+    <t>Hub</t>
+  </si>
+  <si>
+    <t>Switch Controller</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Servo Controller</t>
+  </si>
+  <si>
+    <t>ASC723</t>
+  </si>
+  <si>
+    <t>Power Supply - No Power In</t>
+  </si>
+  <si>
+    <t>Power Supply -  Power In</t>
+  </si>
+  <si>
+    <t>Inline
+Current Sensor</t>
+  </si>
+  <si>
+    <t>External
+Current Sensor</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Enclosure - Hub</t>
+  </si>
+  <si>
+    <t>Enclosure - Inline</t>
+  </si>
+  <si>
+    <t>Enclosure - External</t>
+  </si>
+  <si>
+    <t>5V 2A Wall Converter</t>
+  </si>
+  <si>
+    <t>5V 2A Power Supply</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NOYITO-Precision-85V-265V-DC100-370V-Industrial/dp/B07CBS768L/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/NOYITO-Converter-100-240V-Switching-Interface/dp/B07CN33B95/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/mean-well-usa-inc/IRM-10-5/7704657</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/MEAN-WELL/APV-12-5?qs=DNaZHaGatO22h%252Buh76sklA%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/MEAN-WELL/IRM-10-5?qs=WkdRfq4wf1Mbq1AdfDJBoQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Diaod</t>
+  </si>
+  <si>
+    <t>1N4007 Replacement - BAS16</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/nexperia-usa-inc/BAS316-135/1232075</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Diotec-Semiconductor/MMBT3904?qs=OlC7AqGiEDkK1MwiyUU6mg%3D%3D</t>
+  </si>
+  <si>
+    <t>Low Power Transistor, MMBT3904, SOT23</t>
+  </si>
+  <si>
+    <t>40A Relay</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/PR24-5V-900-1A/16752706</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/CUI-Devices/PR24-5V-900-1A?qs=T%252BzbugeAwjhwJxQVS2rIuQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Diotec-Semiconductor/BAS16?qs=OlC7AqGiEDnnA%2Fkl3F9q3w%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Lite-On/LTV-817S-D?qs=WAWaI72GHKyXGgiY1hNeaA%3D%3D</t>
+  </si>
+  <si>
+    <t>Opto Isolator - TLV-817</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Texas-Instruments/TLV9104IDR?qs=P1JMDcb91o6eCAqap4YOcQ%3D%3D</t>
+  </si>
+  <si>
+    <t>Opamp - TLV9104</t>
+  </si>
+  <si>
+    <t>CURRENT DETECTOR</t>
+  </si>
+  <si>
+    <t>Hall Sensor</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Allegro-MicroSystems/A1324LLHLX-T?qs=pUKx8fyJudBwo82DLcN5vg%3D%3D</t>
+  </si>
+  <si>
+    <t>1uF 1206</t>
+  </si>
+  <si>
+    <t>4.99K 1%</t>
+  </si>
+  <si>
+    <t>300K</t>
+  </si>
+  <si>
+    <t>.22uF 1206</t>
+  </si>
+  <si>
+    <t>.002uF 1206</t>
+  </si>
+  <si>
+    <t>BAT55GW</t>
+  </si>
+  <si>
+    <t>10uF 1206</t>
+  </si>
+  <si>
+    <t>100K 1206</t>
+  </si>
+  <si>
+    <t>1M 1206</t>
+  </si>
+  <si>
+    <t>.1uF 1206</t>
+  </si>
+  <si>
+    <t>10M 1206</t>
+  </si>
+  <si>
+    <t>Relay Module</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B105KBHNFNE?qs=h6Piwd%2FnvzlRSi1VmWERcg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B104KBCNNND?qs=349EhDEZ59qCo56p90fuww%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Samsung-Electro-Mechanics/CL31B106KQHNFNE?qs=xZ%2FP%252Ba9zWqZai9%2FtlGbSiw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Nexperia/BAT54GWJ?qs=EO%252B2iqeaG03qzVr9l4ml1Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RT1206FRE074K99L?qs=b9F7ecf%252B2s2jAf1W%2FUSxkg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/SEI-Stackpole/RNCP1206FTD10K0?qs=FESYatJ8odLQ8lJwene6Dg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RT1206FRE07300KL?qs=yNCrj0CQcyJ2771qf8eS9w%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/CRT1206-FZ-1004ELF?qs=Zq5ylnUbLm7NEIs0KGI1bw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Vishay-Beyschlag/MCA1206MD1005BP500?qs=OlC7AqGiEDk5aUB%2FGGKesQ%3D%3D</t>
+  </si>
+  <si>
+    <t>1M Pot</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/PVG3A105C01R00?qs=M0b1YOHIqsYQKqhAxaLQ1g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/BI-Technologies-TT-Electronics/35WR1MEGLFTR?qs=K%2Fj%2Fqf%252B0fqKz3t%2FLKZk09Q%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Bourns/MOV-20D331KTR?qs=CQ3B1E%252BbPs0te19uuqRX2w%3D%3D</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/onsemi/BAS16HT3G?qs=atIEnC%2F2K4WzW25Cf0SM%252Bw%3D%3D</t>
+  </si>
+  <si>
+    <t>BAS16HT3G</t>
+  </si>
+  <si>
+    <t>220 1206</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/YAGEO/RT1206FRE07220RL?qs=yNCrj0CQcyIDJm%252BN6MoQJw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Hirose-Connector/DF63M-2P-3.96DS01?qs=sGAEpiMZZMvlX3nhDDO4ADf%252Bp9sbtHSJ4%2Fcjdc40S%252Bk%3D</t>
+  </si>
+  <si>
+    <t>Power Connector</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/CUI-Devices/TB001-500-02BE?qs=sGAEpiMZZMvPvGwLNS671%2FDanv8Jav06SIfJcN9KPIVGn2b90zlTyg%3D%3D</t>
+  </si>
+  <si>
+    <t>1uF Radial Cap</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Chemi-Con/EKMG500ELL1R0ME11D?qs=N98n18CgKly5IA8YqoWNmQ%3D%3D</t>
+  </si>
+  <si>
+    <t>10uF Radial Cap</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/KEMET/EST106M050AC3JA?qs=Wj%2FVkw3K%252BMDBlsscd5UoOQ%3D%3D</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>RESISTOR_SMD1206-RES</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>.1uF</t>
+  </si>
+  <si>
+    <t>C025-024X044</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C-POLRADIAL-5MM-DIA</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>AK550-2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>DIODEBAS16HT3G</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>BAT760-7SOD323</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>IRM-10-5</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>LED-WS2812B</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>LTV-817S</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>MMBT3904IDR</t>
+  </si>
+  <si>
+    <t>MOV1</t>
+  </si>
+  <si>
+    <t>MOV20D331K</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>OLED-0.96-I2C-128X64</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>PR24-5V-900-1A</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SWITCH-5-WAY</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>UC-XIAO-THRUHOLEHYBRID-SMT-THT</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>MCP</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>Power Module</t>
+  </si>
+  <si>
+    <t>Opto Isolator</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Nexperia/BAT760F?qs=45Avz0nZxhsjnn5%2FNeSyOw%3D%3D</t>
+  </si>
+  <si>
+    <t>BAT760</t>
+  </si>
+  <si>
+    <t>https://www.jameco.com/z/IRM-10-5-MEAN-WELL-AC-to-DC-Power-Supply-Encapsulated-Type-5-Volts-2-Amps-10-Watts_2193184.html</t>
+  </si>
+  <si>
+    <t>https://www.arrow.com/en/products/pr23-5v-900-1a/cui-devices</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,6 +740,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -380,7 +769,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -388,17 +777,140 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -712,209 +1224,891 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB578B1D-A1C6-405B-9680-CB9F6A601E9A}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" customWidth="1"/>
+    <col min="8" max="9" width="17.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E4" si="0">C2*D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22">
+        <v>4.99</v>
+      </c>
+      <c r="E2" s="22">
+        <f t="shared" ref="E2:E6" si="0">C2*D2</f>
+        <v>4.99</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
+        <v>5</v>
+      </c>
+      <c r="E3" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" s="21">
+        <v>117</v>
+      </c>
+      <c r="O3" s="21">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22">
+        <v>5</v>
+      </c>
+      <c r="E4" s="22">
+        <f t="shared" ref="E4" si="1">C4*D4</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="N4" s="21">
+        <f>N3/25.4</f>
+        <v>4.6062992125984259</v>
+      </c>
+      <c r="O4" s="21">
+        <f>O3/25.4</f>
+        <v>3.6220472440944884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <v>5</v>
+      </c>
+      <c r="E5" s="22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>'Part Research'!B16</f>
+      <c r="B6" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="21">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <f>'Part Research'!C16</f>
         <v>2.3980000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E6" s="22">
         <f t="shared" si="0"/>
         <v>2.3980000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="F6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
+        <f>'Part Research'!C3</f>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="E7" s="22">
+        <f>C7*D7</f>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f>'Part Research'!B3</f>
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="E5">
-        <f>C5*D5</f>
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B8" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22">
+        <f>'Part Research'!E6</f>
+        <v>5.95</v>
+      </c>
+      <c r="E8" s="22">
+        <f t="shared" ref="E8:E29" si="2">C8*D8</f>
+        <v>5.95</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f>'Part Research'!D6</f>
-        <v>5.95</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E17" si="1">C6*D6</f>
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
+      <c r="B10" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="21">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22">
+        <f>'Part Research'!C54</f>
+        <v>1.998</v>
+      </c>
+      <c r="E10" s="22">
+        <f t="shared" si="2"/>
+        <v>1.998</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="F11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22">
+        <f t="shared" ref="E12" si="3">C12*D12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="F13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="21">
+        <v>2</v>
+      </c>
+      <c r="D15" s="22">
+        <f>'Part Research'!C50</f>
+        <v>0.99</v>
+      </c>
+      <c r="E15" s="22">
+        <f t="shared" si="2"/>
+        <v>1.98</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
+      <c r="C16" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>'Part Research'!B50</f>
-        <v>0.99</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E25">
-        <f>SUM(E2:E17)</f>
-        <v>10.237</v>
+      <c r="F16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="21">
+        <v>1</v>
+      </c>
+      <c r="D17" s="22">
+        <v>5</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="24">
+        <v>220</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2</v>
+      </c>
+      <c r="D18" s="22">
+        <f>'Part Research'!C92</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E18" s="22">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2</v>
+      </c>
+      <c r="D19" s="22">
+        <f>'Part Research'!C107</f>
+        <v>0.12</v>
+      </c>
+      <c r="E19" s="22">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="21">
+        <v>2</v>
+      </c>
+      <c r="D20" s="22">
+        <f>'Part Research'!C111</f>
+        <v>0.16</v>
+      </c>
+      <c r="E20" s="22">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22">
+        <f>'Part Research'!C90</f>
+        <v>0.62</v>
+      </c>
+      <c r="E21" s="22">
+        <f t="shared" si="2"/>
+        <v>0.62</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="21">
+        <v>2</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+      <c r="D23" s="22">
+        <f>'Part Research'!C80</f>
+        <v>0.11</v>
+      </c>
+      <c r="E23" s="22">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="22">
+        <f>'Part Research'!C129</f>
+        <v>0.36</v>
+      </c>
+      <c r="E24" s="22">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="21">
+        <v>1</v>
+      </c>
+      <c r="D25" s="22">
+        <f>'Part Research'!C82</f>
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="22">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1</v>
+      </c>
+      <c r="D26" s="22">
+        <f>'Part Research'!C131</f>
+        <v>7.2</v>
+      </c>
+      <c r="E26" s="22">
+        <f t="shared" si="2"/>
+        <v>7.2</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1</v>
+      </c>
+      <c r="D27" s="22">
+        <f>'Part Research'!C88</f>
+        <v>0.11</v>
+      </c>
+      <c r="E27" s="22">
+        <f t="shared" si="2"/>
+        <v>0.11</v>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="21">
+        <v>1</v>
+      </c>
+      <c r="D28" s="22">
+        <f>'Part Research'!C86</f>
+        <v>1.33</v>
+      </c>
+      <c r="E28" s="22">
+        <f>C28*D28</f>
+        <v>1.33</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+    </row>
+    <row r="30" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22">
+        <f>SUM(E2:E23)</f>
+        <v>39.785000000000004</v>
+      </c>
+      <c r="F31" s="23">
+        <f>SUMIF(F$2:F$30,"=X",$E$2:$E$30)</f>
+        <v>37.234999999999999</v>
+      </c>
+      <c r="G31" s="23">
+        <f>SUMIF(G$2:G$30,"=X",$E$2:$E$30)</f>
+        <v>37.234999999999999</v>
+      </c>
+      <c r="H31" s="23">
+        <f>SUMIF(H$2:H$30,"=X",$E$2:$E$30)</f>
+        <v>35.237000000000002</v>
+      </c>
+      <c r="I31" s="23">
+        <f>SUMIF(I$2:I$30,"=X",$E$2:$E$30)</f>
+        <v>36.887</v>
+      </c>
+      <c r="J31" s="23">
+        <f>SUMIF(J$2:J$30,"=X",$E$2:$E$30)</f>
+        <v>35.237000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -924,793 +2118,1965 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EAB0DE-80C1-6F45-9995-6D1B0CAD4FFF}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="19">
+        <v>220</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="19">
+        <v>220</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FF341D-09D8-48FF-B9F6-628C5EE284DD}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="B1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <f>D2/C2</f>
+      <c r="C2" s="3">
+        <f>E2/D2</f>
         <v>0.999</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="3">
         <v>9.99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <f>D3/C3</f>
+      <c r="C3" s="3">
+        <f>E3/D3</f>
         <v>0.89900000000000002</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="3">
         <v>8.99</v>
       </c>
-      <c r="G3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ref="B5:B6" si="0">D5/C5</f>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C6" si="0">E5/D5</f>
         <v>8.77</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>8.77</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3">
         <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>5.95</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <f t="shared" ref="B8:B15" si="1">D8/C8</f>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:C15" si="1">E8/D8</f>
         <v>2.665</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="3">
         <v>15.99</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="3">
         <f t="shared" si="1"/>
         <v>2.665</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="E9" s="3">
         <v>15.99</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>2.9980000000000002</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="3">
         <v>14.99</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="3">
         <f t="shared" si="1"/>
         <v>3.2475000000000001</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="3">
         <v>12.99</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="3">
         <f t="shared" si="1"/>
         <v>12.99</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>12.99</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
         <v>18.59</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>18.59</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
         <v>15.59</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>15.59</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
         <v>8.99</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
       <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>8.99</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ref="C16" si="2">E16/D16</f>
+        <v>2.3980000000000001</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" ref="C17" si="3">E17/D17</f>
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22.99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" ref="C23" si="4">E23/D23</f>
+        <v>2.798</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13.99</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24" si="5">E24/D24</f>
+        <v>8.99</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8.99</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3">
+        <f>E25/D25</f>
+        <v>6.99</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>6.99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" ref="C29" si="6">E29/D29</f>
+        <v>4.9950000000000001</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" ref="C30" si="7">E30/D30</f>
+        <v>7.9980000000000002</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>39.99</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B16">
-        <f t="shared" ref="B16" si="2">D16/C16</f>
-        <v>2.3980000000000001</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>11.99</v>
-      </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17" si="3">D17/C17</f>
-        <v>2.2989999999999999</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>22.99</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C31" s="3">
+        <f t="shared" ref="C31:C33" si="8">E31/D31</f>
+        <v>9.99</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="H31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ref="B23" si="4">D23/C23</f>
-        <v>2.798</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>13.99</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ref="B24" si="5">D24/C24</f>
-        <v>8.99</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>8.99</v>
-      </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25">
-        <f>D25/C25</f>
-        <v>6.99</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>6.99</v>
-      </c>
-      <c r="G25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ref="B29" si="6">D29/C29</f>
-        <v>4.9950000000000001</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>9.99</v>
-      </c>
-      <c r="G29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ref="B30" si="7">D30/C30</f>
-        <v>7.9980000000000002</v>
-      </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
-        <v>39.99</v>
-      </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="B31">
-        <f t="shared" ref="B31:B33" si="8">D31/C31</f>
-        <v>9.99</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>9.99</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32">
+      <c r="C32" s="3">
         <f t="shared" si="8"/>
         <v>4.9950000000000001</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2</v>
       </c>
-      <c r="D32">
+      <c r="E32" s="3">
         <v>9.99</v>
       </c>
-      <c r="G32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33">
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3">
         <f t="shared" si="8"/>
         <v>2.4700000000000002</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
       <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ref="B36" si="9">D36/C36</f>
+      <c r="H33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" ref="C36" si="9">E36/D36</f>
         <v>7.37</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
       <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
         <v>7.37</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38">
-        <f>D38/C38</f>
+      <c r="H36" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="3">
+        <f>E38/D38</f>
         <v>2.4850000000000003</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>10</v>
       </c>
-      <c r="D38">
+      <c r="E38" s="3">
         <v>24.85</v>
       </c>
-      <c r="G38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40">
-        <f>D40/C40</f>
+      <c r="H38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="3">
+        <f>E40/D40</f>
         <v>10.99</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
       <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
         <v>10.99</v>
       </c>
-      <c r="G40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="H40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>22</v>
       </c>
-      <c r="B44">
-        <f t="shared" ref="B44" si="10">D44/C44</f>
+      <c r="C44" s="3">
+        <f t="shared" ref="C44" si="10">E44/D44</f>
         <v>1.62</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
       <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
         <v>1.62</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47">
-        <f t="shared" ref="B47:B48" si="11">D47/C47</f>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" ref="C47:C48" si="11">E47/D47</f>
         <v>0.1164</v>
       </c>
-      <c r="C47">
-        <v>100</v>
-      </c>
       <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
         <v>11.64</v>
       </c>
-      <c r="G47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48">
+      <c r="H47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="3">
         <f t="shared" si="11"/>
         <v>8.199999999999999E-2</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>50</v>
       </c>
-      <c r="D48">
+      <c r="E48" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49">
-        <f t="shared" ref="B49:B50" si="12">D49/C49</f>
+      <c r="H48" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" ref="C49:C50" si="12">E49/D49</f>
         <v>9.2799999999999994E-2</v>
       </c>
-      <c r="C49">
-        <v>100</v>
-      </c>
       <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
         <v>9.2799999999999994</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>74</v>
       </c>
-      <c r="M49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50">
+      <c r="C50" s="3">
         <f t="shared" si="12"/>
         <v>0.99</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>5</v>
       </c>
-      <c r="D50">
+      <c r="E50" s="3">
         <f>9.9/2</f>
         <v>4.95</v>
       </c>
-      <c r="G50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ref="B51" si="13">D51/C51</f>
+      <c r="H50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" ref="C51" si="13">E51/D51</f>
         <v>0.99</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="D51">
+      <c r="E51" s="3">
         <f>9.9/2</f>
         <v>4.95</v>
       </c>
-      <c r="G51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ref="B54:B55" si="14">D54/C54</f>
+      <c r="H51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" ref="C54:C55" si="14">E54/D54</f>
         <v>1.998</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>5</v>
       </c>
-      <c r="D54">
+      <c r="E54" s="3">
         <v>9.99</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55">
+      <c r="H54" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="3">
         <f t="shared" si="14"/>
         <v>0.64</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
       <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
         <v>0.64</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" ref="C56" si="15">E56/D56</f>
+        <v>0.62</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="H56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ref="B56" si="15">D56/C56</f>
-        <v>0.62</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>0.62</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="C59" s="3">
+        <f t="shared" ref="C59" si="16">E59/D59</f>
+        <v>0.43200000000000005</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4.32</v>
+      </c>
+      <c r="H59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" ref="C60" si="17">E60/D60</f>
+        <v>0.999</v>
+      </c>
+      <c r="D60">
+        <v>10</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" ref="C61" si="18">E61/D61</f>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" ref="C64:C65" si="19">E64/D64</f>
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>90</v>
       </c>
-      <c r="B59">
-        <f t="shared" ref="B59" si="16">D59/C59</f>
-        <v>0.43200000000000005</v>
-      </c>
-      <c r="C59">
-        <v>10</v>
-      </c>
-      <c r="D59">
-        <v>4.32</v>
-      </c>
-      <c r="G59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60">
-        <f t="shared" ref="B60" si="17">D60/C60</f>
-        <v>0.999</v>
-      </c>
-      <c r="C60">
-        <v>10</v>
-      </c>
-      <c r="D60">
-        <v>9.99</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B61">
-        <f t="shared" ref="B61" si="18">D61/C61</f>
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="C61">
-        <v>10</v>
-      </c>
-      <c r="D61">
-        <v>7.99</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64">
-        <f t="shared" ref="B64:B65" si="19">D64/C64</f>
-        <v>4.8949999999999996</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65">
+      <c r="C65" s="3">
         <f t="shared" si="19"/>
         <v>3.33</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>3</v>
       </c>
-      <c r="D65">
+      <c r="E65" s="3">
         <v>9.99</v>
       </c>
-      <c r="G65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ref="B66" si="20">D66/C66</f>
+      <c r="H65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" ref="C66" si="20">E66/D66</f>
         <v>1.998</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>5</v>
       </c>
-      <c r="D66">
+      <c r="E66" s="3">
         <v>9.99</v>
       </c>
-      <c r="G66" t="s">
-        <v>95</v>
+      <c r="H66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" ref="C70" si="21">E70/D70</f>
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>8.99</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" ref="C71" si="22">E71/D71</f>
+        <v>9.99</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" ref="C72" si="23">E72/D72</f>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="H72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" ref="C73" si="24">E73/D73</f>
+        <v>6.71</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>6.71</v>
+      </c>
+      <c r="H73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" ref="C74" si="25">E74/D74</f>
+        <v>8.31</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B76" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="10"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="R77" s="13"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B78" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" ref="C78" si="26">E78/D78</f>
+        <v>0.12</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>120</v>
+      </c>
+      <c r="O78" t="s">
+        <v>118</v>
+      </c>
+      <c r="R78" s="13"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B79" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" ref="C79" si="27">E79/D79</f>
+        <v>0.1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>126</v>
+      </c>
+      <c r="R79" s="13"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B80" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="12">
+        <f t="shared" ref="C80" si="28">E80/D80</f>
+        <v>0.11</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>160</v>
+      </c>
+      <c r="R80" s="13"/>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B81" s="11"/>
+      <c r="C81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="R81" s="13"/>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B82" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="12">
+        <f t="shared" ref="C82" si="29">E82/D82</f>
+        <v>0.1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>121</v>
+      </c>
+      <c r="R82" s="13"/>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="R83" s="13"/>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B84" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="12">
+        <f t="shared" ref="C84:C86" si="30">E84/D84</f>
+        <v>2.35</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="12">
+        <v>2.35</v>
+      </c>
+      <c r="H84" t="s">
+        <v>124</v>
+      </c>
+      <c r="R84" s="13"/>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B85" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="12">
+        <f t="shared" si="30"/>
+        <v>2.35</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="12">
+        <v>2.35</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>125</v>
+      </c>
+      <c r="R85" s="13"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B86" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="12">
+        <f t="shared" si="30"/>
+        <v>1.33</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="12">
+        <v>1.33</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="R86" s="13"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R87" s="13"/>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B88" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="12">
+        <f t="shared" ref="C88" si="31">E88/D88</f>
+        <v>0.11</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>127</v>
+      </c>
+      <c r="R88" s="13"/>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B89" s="11"/>
+      <c r="E89" s="12"/>
+      <c r="R89" s="13"/>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B90" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="12">
+        <f t="shared" ref="C90" si="32">E90/D90</f>
+        <v>0.62</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>158</v>
+      </c>
+      <c r="R90" s="13"/>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B91" s="11"/>
+      <c r="C91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="R91" s="13"/>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B92" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="12">
+        <f t="shared" ref="C92" si="33">E92/D92</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="H92" t="s">
+        <v>163</v>
+      </c>
+      <c r="R92" s="13"/>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B93" s="11"/>
+      <c r="C93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="R93" s="13"/>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="R94" s="13"/>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B95" s="11"/>
+      <c r="C95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="R95" s="13"/>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B96" s="11"/>
+      <c r="C96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="R96" s="13"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B97" s="11"/>
+      <c r="C97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="R97" s="13"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B98" s="11"/>
+      <c r="C98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="R98" s="13"/>
+    </row>
+    <row r="99" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="17"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <f>SUMPRODUCT(F76:F99,C76:C99)</f>
+        <v>3.5700000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B103" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="10"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B104" s="11"/>
+      <c r="C104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="R104" s="13"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B105" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="12">
+        <f t="shared" ref="C105" si="34">E105/D105</f>
+        <v>1.3</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>129</v>
+      </c>
+      <c r="R105" s="13"/>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B106" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="12">
+        <f t="shared" ref="C106" si="35">E106/D106</f>
+        <v>2.08</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="12">
+        <v>2.08</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="H106" t="s">
+        <v>133</v>
+      </c>
+      <c r="R106" s="13"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B107" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" s="12">
+        <f t="shared" ref="C107" si="36">E107/D107</f>
+        <v>0.12</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>146</v>
+      </c>
+      <c r="R107" s="13"/>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B108" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" s="12">
+        <f t="shared" ref="C108" si="37">E108/D108</f>
+        <v>0.11</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="H108" t="s">
+        <v>147</v>
+      </c>
+      <c r="R108" s="13"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B109" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="12">
+        <f t="shared" ref="C109" si="38">E109/D109</f>
+        <v>0.12</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="R109" s="13"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B110" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="12">
+        <f t="shared" ref="C110" si="39">E110/D110</f>
+        <v>0.12</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="H110" t="s">
+        <v>146</v>
+      </c>
+      <c r="R110" s="13"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B111" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="12">
+        <f t="shared" ref="C111" si="40">E111/D111</f>
+        <v>0.16</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>148</v>
+      </c>
+      <c r="R111" s="13"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B112" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" s="12">
+        <f t="shared" ref="C112" si="41">E112/D112</f>
+        <v>0.17</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="H112" t="s">
+        <v>149</v>
+      </c>
+      <c r="R112" s="13"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B113" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="12">
+        <f t="shared" ref="C113" si="42">E113/D113</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="H113" t="s">
+        <v>150</v>
+      </c>
+      <c r="R113" s="13"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B114" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" s="12">
+        <f t="shared" ref="C114" si="43">E114/D114</f>
+        <v>0.1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+      <c r="H114" t="s">
+        <v>151</v>
+      </c>
+      <c r="R114" s="13"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B115" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="12">
+        <f t="shared" ref="C115:C117" si="44">E115/D115</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="H115" t="s">
+        <v>152</v>
+      </c>
+      <c r="R115" s="13"/>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B116" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" s="12">
+        <f t="shared" si="44"/>
+        <v>0.13</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>153</v>
+      </c>
+      <c r="R116" s="13"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B117" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="12">
+        <f t="shared" si="44"/>
+        <v>0.6</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>154</v>
+      </c>
+      <c r="R117" s="13"/>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B118" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" s="12">
+        <f t="shared" ref="C118" si="45">E118/D118</f>
+        <v>1.44</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1.44</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="s">
+        <v>156</v>
+      </c>
+      <c r="R118" s="13"/>
+    </row>
+    <row r="119" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="16"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16"/>
+      <c r="Q119" s="16"/>
+      <c r="R119" s="17"/>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <f>SUMPRODUCT(F105:F118,C105:C118)</f>
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="12">
+        <f t="shared" ref="C124" si="46">E124/D124</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" s="12">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="12">
+        <f t="shared" ref="C125" si="47">E125/D125</f>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="12">
+        <f t="shared" ref="C127" si="48">E127/D127</f>
+        <v>0.6</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I127" s="16"/>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>218</v>
+      </c>
+      <c r="C129" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" s="12">
+        <f>C129/D129</f>
+        <v>0.36</v>
+      </c>
+      <c r="H129" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>190</v>
+      </c>
+      <c r="C131" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" s="12">
+        <f>C131/D131</f>
+        <v>7.2</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>159</v>
+      </c>
+      <c r="H133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" s="12">
+        <f t="shared" ref="C139" si="49">E139/D139</f>
+        <v>3.18</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" s="12">
+        <v>3.18</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>165</v>
+      </c>
+      <c r="C140" s="12">
+        <f t="shared" ref="C140" si="50">E140/D140</f>
+        <v>0.45</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G48" r:id="rId1" xr:uid="{ED972068-0F18-6848-8879-2AADF6DC3DC2}"/>
-    <hyperlink ref="G49" r:id="rId2" xr:uid="{5AAD89A9-79BF-6141-A4BD-96A246BBFA30}"/>
-    <hyperlink ref="G54" r:id="rId3" xr:uid="{57ABA11B-66DE-F446-84A5-4417AFA1BBCB}"/>
-    <hyperlink ref="G60" r:id="rId4" xr:uid="{6FEBD5F4-A2ED-9F4D-9EAF-F1582707BBB9}"/>
-    <hyperlink ref="G61" r:id="rId5" xr:uid="{DA984527-7678-8647-981F-45108827B256}"/>
-    <hyperlink ref="G64" r:id="rId6" xr:uid="{1B058753-6352-694B-A644-78615DB565EA}"/>
-    <hyperlink ref="G36" r:id="rId7" xr:uid="{F90E4953-6E7A-1F4E-87F7-10F69A6A7944}"/>
+    <hyperlink ref="H48" r:id="rId1" xr:uid="{ED972068-0F18-6848-8879-2AADF6DC3DC2}"/>
+    <hyperlink ref="H49" r:id="rId2" xr:uid="{5AAD89A9-79BF-6141-A4BD-96A246BBFA30}"/>
+    <hyperlink ref="H54" r:id="rId3" xr:uid="{57ABA11B-66DE-F446-84A5-4417AFA1BBCB}"/>
+    <hyperlink ref="H60" r:id="rId4" xr:uid="{6FEBD5F4-A2ED-9F4D-9EAF-F1582707BBB9}"/>
+    <hyperlink ref="H61" r:id="rId5" xr:uid="{DA984527-7678-8647-981F-45108827B256}"/>
+    <hyperlink ref="H64" r:id="rId6" xr:uid="{1B058753-6352-694B-A644-78615DB565EA}"/>
+    <hyperlink ref="H36" r:id="rId7" xr:uid="{F90E4953-6E7A-1F4E-87F7-10F69A6A7944}"/>
+    <hyperlink ref="H71" r:id="rId8" xr:uid="{C3612641-B6C6-0849-82C2-A08EB42A5489}"/>
+    <hyperlink ref="H70" r:id="rId9" xr:uid="{34165342-2670-2F4A-9D49-A09A4DCBB930}"/>
+    <hyperlink ref="H74" r:id="rId10" xr:uid="{0A69FAC4-3AFF-924E-B1CF-26703822B158}"/>
+    <hyperlink ref="H131" r:id="rId11" xr:uid="{4DC20B51-188D-C148-A572-34666A16BE83}"/>
+    <hyperlink ref="H86" r:id="rId12" xr:uid="{5DBCDA6F-597E-5A49-BAE6-92DBD9E9105B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A62692F-1FA3-49A7-89B0-6CDF67EE220B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1725,7 +4091,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1">
         <v>73.95</v>
@@ -1733,7 +4099,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>33.950000000000003</v>
@@ -1741,7 +4107,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>60.95</v>
@@ -1749,7 +4115,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>83.95</v>
